--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/16.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/16.xlsx
@@ -479,13 +479,13 @@
         <v>-8.611879315476283</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.59385366661748</v>
+        <v>-21.64310063278792</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07344768486559876</v>
+        <v>-0.06064826488801543</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.916805530913029</v>
+        <v>-8.920936741715574</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.846382526431466</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.7412083335863</v>
+        <v>-21.78927216009494</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2059153259246593</v>
+        <v>-0.1946168310552188</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.430080452277313</v>
+        <v>-8.431273369952839</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.943181701112987</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.9231136120836</v>
+        <v>-21.96189810355884</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3624759928238767</v>
+        <v>-0.3555482700934582</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.324810356418899</v>
+        <v>-8.326247724437772</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.870763128858153</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.04196536901831</v>
+        <v>-22.07843247123862</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3885050653833318</v>
+        <v>-0.3832298269739306</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.800151473502789</v>
+        <v>-7.791967276007573</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.641162532553528</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.97466818949522</v>
+        <v>-22.00022302838859</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5108720182553461</v>
+        <v>-0.5054452206330705</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.10703208097339</v>
+        <v>-7.098300314709079</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.271079884408243</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.24493737810515</v>
+        <v>-22.26884462168436</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6589404802267322</v>
+        <v>-0.6582364632378964</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.519001891048327</v>
+        <v>-6.505395784937703</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.786103649404957</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.63199027374507</v>
+        <v>-22.65613707866076</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8281050068288563</v>
+        <v>-0.8286770206322853</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.09930998556488</v>
+        <v>-6.085723435481724</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.204643521545076</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.90399505979275</v>
+        <v>-22.92327730287586</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9546862836201513</v>
+        <v>-0.9593210621299866</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.775369279569963</v>
+        <v>-5.757915525055076</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.551289859405706</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.35232187849572</v>
+        <v>-23.36693512002093</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.054011347128395</v>
+        <v>-1.057922552621927</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.473287323277022</v>
+        <v>-5.458043399865981</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.853097250389877</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76675810159723</v>
+        <v>-23.77440939734395</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.314776306389038</v>
+        <v>-1.321606248982118</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.081995658683485</v>
+        <v>-5.065265477184901</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.129411199152523</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23297379642624</v>
+        <v>-24.23903616494121</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.234518369661762</v>
+        <v>-1.241529205508918</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.920893104404903</v>
+        <v>-4.909179043951775</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.392307908847306</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.82063731083628</v>
+        <v>-24.82304270221481</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.164918467904361</v>
+        <v>-1.174818706809864</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.844438815020087</v>
+        <v>-4.841006732199513</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.662304941497949</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42171137108227</v>
+        <v>-25.42303140293634</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.097978185882561</v>
+        <v>-1.10904200842239</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.713814329549853</v>
+        <v>-4.712430740606516</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.948339837518546</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.03681199202945</v>
+        <v>-26.03570218747065</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.054646918021094</v>
+        <v>-1.067162775600397</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.730920964577189</v>
+        <v>-4.734475272569436</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.254301495303125</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.80950974933162</v>
+        <v>-26.80928974402261</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9607095400801905</v>
+        <v>-0.9736849643049827</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.681845113647096</v>
+        <v>-4.691725796525132</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.587250512352999</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.56842295177253</v>
+        <v>-27.5646804170159</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8374870110064661</v>
+        <v>-0.8498170863248256</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.710778256285499</v>
+        <v>-4.724535921608997</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.9474134577651827</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.45000133650433</v>
+        <v>-28.45128470080689</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6698771885880209</v>
+        <v>-0.679474309067775</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.964859943159069</v>
+        <v>-4.983697286617292</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.33379490168444</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.10226574315035</v>
+        <v>-29.09874565820618</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4177071033994148</v>
+        <v>-0.4282331351838827</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.253854028069279</v>
+        <v>-5.284307651843291</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2509882001286706</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.52492527580202</v>
+        <v>-29.52098962527415</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2137230698911224</v>
+        <v>-0.2245326640738714</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.577535616700249</v>
+        <v>-5.606532316427922</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8010324761170426</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.11951895744591</v>
+        <v>-30.11766602384335</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1982539827563326</v>
+        <v>0.1886666402903124</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.903617707702876</v>
+        <v>-5.937410523166992</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.310623605785716</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.67545770629654</v>
+        <v>-30.67334809983347</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2537931007644864</v>
+        <v>0.2477160652289111</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.173300215488771</v>
+        <v>-6.208950853562315</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.77399807792893</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.0021191446129</v>
+        <v>-30.99789015367302</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5384310805562746</v>
+        <v>0.5320704826224183</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.468821124566312</v>
+        <v>-6.506696260764302</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.183287086274731</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.20850612499628</v>
+        <v>-31.2035315605092</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7314148486140084</v>
+        <v>0.7224532990269533</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.730837669584885</v>
+        <v>-6.770350623083291</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.533956116435303</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.50812157732486</v>
+        <v>-31.5003651679305</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9696121521769716</v>
+        <v>0.9638675691083465</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.785570101459998</v>
+        <v>-6.828373356579839</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.823429175515432</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.42000945106589</v>
+        <v>-31.41265394023462</v>
       </c>
       <c r="F26" t="n">
-        <v>0.998907081323526</v>
+        <v>0.9974794913183868</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.969826992260288</v>
+        <v>-7.011657335013613</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.048520506839547</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.52009475514194</v>
+        <v>-31.51182255552312</v>
       </c>
       <c r="F27" t="n">
-        <v>1.245410807553378</v>
+        <v>1.241440933977443</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.228831909048842</v>
+        <v>-7.269772452552387</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.208515816873629</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.33928950318969</v>
+        <v>-31.33457161156312</v>
       </c>
       <c r="F28" t="n">
-        <v>1.404518647030258</v>
+        <v>1.40121856739509</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.411284756315241</v>
+        <v>-7.455867609934638</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.302318070433152</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.14430857582682</v>
+        <v>-31.13774752861142</v>
       </c>
       <c r="F29" t="n">
-        <v>1.425668490736532</v>
+        <v>1.421996846579479</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.713586717917193</v>
+        <v>-7.760614074970047</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.329974427178393</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.03783822878258</v>
+        <v>-31.03326456285858</v>
       </c>
       <c r="F30" t="n">
-        <v>1.553652912498631</v>
+        <v>1.55178531187547</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.75357390508169</v>
+        <v>-7.804023566941385</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.291565467004749</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.75546141466674</v>
+        <v>-30.74992705889339</v>
       </c>
       <c r="F31" t="n">
-        <v>1.460228880278754</v>
+        <v>1.454489186216995</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.696509416931058</v>
+        <v>-7.742778977919542</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.186881747999733</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.34935117025958</v>
+        <v>-30.34272167694805</v>
       </c>
       <c r="F32" t="n">
-        <v>1.436512307967349</v>
+        <v>1.435035827893541</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.690266155162008</v>
+        <v>-7.736037037450066</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>3.016730960254759</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.85307052770248</v>
+        <v>-29.84937688301453</v>
       </c>
       <c r="F33" t="n">
-        <v>1.379242481528308</v>
+        <v>1.374206804455385</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.942905585009838</v>
+        <v>-7.988378237879014</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.783432851279339</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.27708929520093</v>
+        <v>-29.27671284167218</v>
       </c>
       <c r="F34" t="n">
-        <v>1.379672714132596</v>
+        <v>1.376137962167816</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.95214091898144</v>
+        <v>-7.999407837370774</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.4913058486694</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.79962888457802</v>
+        <v>-28.79505277415059</v>
       </c>
       <c r="F35" t="n">
-        <v>1.395293091072389</v>
+        <v>1.392555247226917</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.928742132116386</v>
+        <v>-7.971457385112622</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.1457702884074</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.16900077782153</v>
+        <v>-28.1618530497821</v>
       </c>
       <c r="F36" t="n">
-        <v>1.321845540910726</v>
+        <v>1.319093030044653</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.75384280045937</v>
+        <v>-7.792998856456492</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.754344378122776</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.52422632969562</v>
+        <v>-27.51892175724501</v>
       </c>
       <c r="F37" t="n">
-        <v>1.411314366575269</v>
+        <v>1.408077844029372</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.665591337504688</v>
+        <v>-7.701745543285525</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.324704092147679</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.94260073876621</v>
+        <v>-26.93480521731692</v>
       </c>
       <c r="F38" t="n">
-        <v>1.246545057146502</v>
+        <v>1.241352931853838</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.597091462292343</v>
+        <v>-7.628058431787383</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8646564915359573</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.17450109242237</v>
+        <v>-26.16467907762674</v>
       </c>
       <c r="F39" t="n">
-        <v>1.330264410735553</v>
+        <v>1.326177200994813</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.509568461360832</v>
+        <v>-7.538506493006102</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3836280649674677</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.5397466638702</v>
+        <v>-25.53552256193719</v>
       </c>
       <c r="F40" t="n">
-        <v>1.325849637534729</v>
+        <v>1.321464198375107</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.174867051251835</v>
+        <v>-7.19682358109115</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.1102021472171108</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.9673857409536</v>
+        <v>-24.96081491572447</v>
       </c>
       <c r="F41" t="n">
-        <v>1.380914521876792</v>
+        <v>1.379110478342901</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.163377885114585</v>
+        <v>-7.182738352307568</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.6066785659827078</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.28833691018718</v>
+        <v>-24.28372657671168</v>
       </c>
       <c r="F42" t="n">
-        <v>1.379882941427873</v>
+        <v>1.374759262231346</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.900036419235078</v>
+        <v>-6.919978678245224</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.098215369809793</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.60585110759333</v>
+        <v>-23.60204746025087</v>
       </c>
       <c r="F43" t="n">
-        <v>1.332581799990471</v>
+        <v>1.327795462267761</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.83897272346731</v>
+        <v>-6.852676609715273</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.578247031828697</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.91775272511625</v>
+        <v>-22.91310816859268</v>
       </c>
       <c r="F44" t="n">
-        <v>1.443782261178452</v>
+        <v>1.439758608526981</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.757795653449054</v>
+        <v>-6.772037330452378</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.039111180799495</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.08559975530552</v>
+        <v>-22.08233389871842</v>
       </c>
       <c r="F45" t="n">
-        <v>1.488653566202997</v>
+        <v>1.482957873203041</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.603386149571279</v>
+        <v>-6.612249919020996</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.478451207779765</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.56370805027608</v>
+        <v>-21.55953772741861</v>
       </c>
       <c r="F46" t="n">
-        <v>1.479511123361866</v>
+        <v>1.471742491450338</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.490381644849407</v>
+        <v>-6.500834341530871</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.89504984516956</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.87490076180331</v>
+        <v>-20.86755258448233</v>
       </c>
       <c r="F47" t="n">
-        <v>1.561480212492562</v>
+        <v>1.556742764838521</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.468009549426404</v>
+        <v>-6.475895517502738</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.28666590831669</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.23199146979712</v>
+        <v>-20.22058052776974</v>
       </c>
       <c r="F48" t="n">
-        <v>1.608463568483615</v>
+        <v>1.602748319456191</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.441340016967383</v>
+        <v>-6.446449029143309</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.652949174398787</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.46266712723312</v>
+        <v>-19.45306022873963</v>
       </c>
       <c r="F49" t="n">
-        <v>1.751799471807827</v>
+        <v>1.747365142579535</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.200986661376111</v>
+        <v>-6.201969351756361</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.995692153040946</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.06251169318987</v>
+        <v>-19.04844113142688</v>
       </c>
       <c r="F50" t="n">
-        <v>1.743473493113471</v>
+        <v>1.736609327472322</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.214807883788879</v>
+        <v>-6.218763090344213</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.314453750226594</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.48496842299433</v>
+        <v>-18.47220811507169</v>
       </c>
       <c r="F51" t="n">
-        <v>1.720563606935108</v>
+        <v>1.717415086512814</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.273500411226193</v>
+        <v>-6.280227684675068</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.606178563893521</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.01973052953871</v>
+        <v>-18.01096454022633</v>
       </c>
       <c r="F52" t="n">
-        <v>1.722807661087022</v>
+        <v>1.718133770522251</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.278756093608127</v>
+        <v>-6.281973060126557</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.873590032853557</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.61672480449204</v>
+        <v>-17.60645300106465</v>
       </c>
       <c r="F53" t="n">
-        <v>1.808966629102664</v>
+        <v>1.804845196313854</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.186119191493822</v>
+        <v>-6.188534360886078</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.117012144527572</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.98769051397417</v>
+        <v>-16.9764702432146</v>
       </c>
       <c r="F54" t="n">
-        <v>1.863278606387222</v>
+        <v>1.857802918696277</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.189389937087788</v>
+        <v>-6.193345143643123</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.330999242258666</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.78073885329766</v>
+        <v>-16.77205597710201</v>
       </c>
       <c r="F55" t="n">
-        <v>1.852909022822495</v>
+        <v>1.849613832194195</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.420195062267976</v>
+        <v>-6.420517736721193</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.518845770043682</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.22817351918519</v>
+        <v>-16.22288361375519</v>
       </c>
       <c r="F56" t="n">
-        <v>1.886594280135539</v>
+        <v>1.88600759931151</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.320733106567459</v>
+        <v>-6.321803799071313</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.680641520053244</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.1324760987722</v>
+        <v>-16.12824710783232</v>
       </c>
       <c r="F57" t="n">
-        <v>1.92697258784939</v>
+        <v>1.925906784352402</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.502129928350604</v>
+        <v>-6.502789944277637</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.810365033953254</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.91743802073781</v>
+        <v>-15.91501307333182</v>
       </c>
       <c r="F58" t="n">
-        <v>1.813733410797906</v>
+        <v>1.814349425663137</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.657502566581161</v>
+        <v>-6.659903068952816</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.90808550345567</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66040826272349</v>
+        <v>-15.66154740132349</v>
       </c>
       <c r="F59" t="n">
-        <v>1.869355641922797</v>
+        <v>1.869780985520219</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.425856532219863</v>
+        <v>-6.425587636842184</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.974746704983087</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43712731911149</v>
+        <v>-15.43963537963422</v>
       </c>
       <c r="F60" t="n">
-        <v>1.93465810664418</v>
+        <v>1.934037202772082</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.449313987167321</v>
+        <v>-6.443339620775951</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.005592432431083</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29525811784735</v>
+        <v>-15.29923288043015</v>
       </c>
       <c r="F61" t="n">
-        <v>1.880815474018846</v>
+        <v>1.880976811245454</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.287512304906771</v>
+        <v>-6.284280671367741</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.995642215923008</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.26694587908105</v>
+        <v>-15.27348248126211</v>
       </c>
       <c r="F62" t="n">
-        <v>1.876278475646349</v>
+        <v>1.876053581330471</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.369505839071802</v>
+        <v>-6.366088423271829</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.945478707957872</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.21667222146856</v>
+        <v>-15.22666046249767</v>
       </c>
       <c r="F63" t="n">
-        <v>1.863039045050743</v>
+        <v>1.862594145425854</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.404384014060374</v>
+        <v>-6.398438981710204</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.849844528975051</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.26583607452226</v>
+        <v>-15.27699278819256</v>
       </c>
       <c r="F64" t="n">
-        <v>1.707998859287136</v>
+        <v>1.7085953181249</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.396317152729964</v>
+        <v>-6.389809884590099</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.700775889329214</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.31647640764976</v>
+        <v>-15.33237545798097</v>
       </c>
       <c r="F65" t="n">
-        <v>1.700821797206505</v>
+        <v>1.700000444052863</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.499035187003846</v>
+        <v>-6.492562141912051</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.499083758536922</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.32487572144712</v>
+        <v>-15.34214858270793</v>
       </c>
       <c r="F66" t="n">
-        <v>1.794935179394618</v>
+        <v>1.794715174085607</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.449162427954447</v>
+        <v>-6.44535389160512</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.241463776593815</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.20722666020168</v>
+        <v>-15.22732536743157</v>
       </c>
       <c r="F67" t="n">
-        <v>1.617855350674958</v>
+        <v>1.618134024066373</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.205425879611269</v>
+        <v>-6.19764258067914</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.923463767020409</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.33995341862469</v>
+        <v>-15.36211528675241</v>
       </c>
       <c r="F68" t="n">
-        <v>1.581217133214298</v>
+        <v>1.581867371127597</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.32699103535711</v>
+        <v>-6.319100178273909</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.547053193557432</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.25109571881851</v>
+        <v>-15.27578520349643</v>
       </c>
       <c r="F69" t="n">
-        <v>1.543850453730467</v>
+        <v>1.541298392145937</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.195471861630231</v>
+        <v>-6.193599372000202</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.114045542771929</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.30269429729193</v>
+        <v>-15.32893848615353</v>
       </c>
       <c r="F70" t="n">
-        <v>1.475243020367049</v>
+        <v>1.476123041603094</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.134569503089071</v>
+        <v>-6.130692520643607</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.626111976345857</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.32936871875782</v>
+        <v>-15.35687427139108</v>
       </c>
       <c r="F71" t="n">
-        <v>1.367049298402222</v>
+        <v>1.367958653679468</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.140001189718213</v>
+        <v>-6.137507796216087</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.086776163830093</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.44792224627364</v>
+        <v>-15.4754424659275</v>
       </c>
       <c r="F72" t="n">
-        <v>1.289328756238875</v>
+        <v>1.29015988740625</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.004086798817978</v>
+        <v>-6.001788965590528</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.501361397309448</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.55835513338351</v>
+        <v>-15.58676515228716</v>
       </c>
       <c r="F73" t="n">
-        <v>1.221200445548415</v>
+        <v>1.223732951105477</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.154149975591065</v>
+        <v>-6.153406846547294</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.873700869942807</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.67174586964787</v>
+        <v>-15.69771627412492</v>
       </c>
       <c r="F74" t="n">
-        <v>1.084748263892819</v>
+        <v>1.084875378071358</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.067042540243242</v>
+        <v>-6.067389659730793</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.206897838971973</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.92867295851798</v>
+        <v>-15.95823678304222</v>
       </c>
       <c r="F75" t="n">
-        <v>1.02897936256192</v>
+        <v>1.030318950443454</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.103714980751971</v>
+        <v>-6.105489690244661</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5072343652996172</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.95208641240364</v>
+        <v>-15.98253514717079</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8108954332494447</v>
+        <v>0.8086611571112646</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.228027758357017</v>
+        <v>-6.234960370094303</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.220573718374454</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.00593882304271</v>
+        <v>-16.0326279115292</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6663568342359711</v>
+        <v>0.6657212633432722</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.163629759906014</v>
+        <v>-6.17392111936087</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.9690252537303268</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.14357903336697</v>
+        <v>-16.16579468057023</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6840794841285379</v>
+        <v>0.6848470582066435</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.136397991657297</v>
+        <v>-6.146195561418595</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.730309916613182</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.27076165800289</v>
+        <v>-16.29498668702846</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3980334703590781</v>
+        <v>0.398155695530751</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.15713715878675</v>
+        <v>-6.168948999377217</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>2.496493211624225</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.74456509148935</v>
+        <v>-16.76386200159306</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3797241396424816</v>
+        <v>0.3781401014176012</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.124116806407607</v>
+        <v>-6.138798494028952</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.253160177389897</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.20583800037591</v>
+        <v>-17.2207788053612</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2120654271553673</v>
+        <v>0.2134587941124381</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.229460237369024</v>
+        <v>-6.246640207499363</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.991423820980496</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.63809954251419</v>
+        <v>-17.65175453869349</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.09326771870407195</v>
+        <v>-0.09190368578820268</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.279685004912841</v>
+        <v>-6.297847665423429</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>4.699194431529965</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.11485104714141</v>
+        <v>-18.12530863282974</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1044390993949726</v>
+        <v>-0.1037595274404714</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.329391537728765</v>
+        <v>-6.352951661820428</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>5.359717066605175</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.89137200781351</v>
+        <v>-18.90065134284691</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2007672016937978</v>
+        <v>-0.1998920694646201</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.359859828523379</v>
+        <v>-6.385766675911161</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>5.960349939193786</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.57931394207084</v>
+        <v>-19.58959552351197</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3582078898290599</v>
+        <v>-0.3578363253071744</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.460500034878823</v>
+        <v>-6.489086058029675</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>6.489082524041465</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23151234712417</v>
+        <v>-20.23735471033013</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.519212663970303</v>
+        <v>-0.5201366862681499</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.717632462037348</v>
+        <v>-6.747753633344411</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>6.932394128879211</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98278158732865</v>
+        <v>-20.98760214809943</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6205226642665146</v>
+        <v>-0.6212022362210157</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.050212043166104</v>
+        <v>-7.082469710474009</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>7.278322347432891</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83121983901307</v>
+        <v>-21.83562483420016</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7351845423162708</v>
+        <v>-0.7369201397540256</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.341166619829947</v>
+        <v>-7.380337342847669</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>7.5213450076441</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81943479702259</v>
+        <v>-22.8203050402449</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9473087722579766</v>
+        <v>-0.9486288041120436</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.41797291770918</v>
+        <v>-7.456786743225618</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>7.654665783480586</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.87747455110539</v>
+        <v>-23.87112862019213</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.196007662571073</v>
+        <v>-1.195259644520435</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.782580382823096</v>
+        <v>-7.82078308248117</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>7.671480653104318</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.08797798433293</v>
+        <v>-25.07962756060424</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.12295612196563</v>
+        <v>-1.120154721030888</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.153646226008208</v>
+        <v>-8.193041843341808</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>7.575331910709928</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.35555568372483</v>
+        <v>-26.34456030728114</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.335217244099609</v>
+        <v>-1.329795335484201</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.442156299238592</v>
+        <v>-8.480803898521554</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>7.370030336234328</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.61203778203227</v>
+        <v>-27.59616073223197</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.623614870172055</v>
+        <v>-1.622441508523996</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.749459714865399</v>
+        <v>-8.78486101358873</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>7.05826623749699</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.11132262837132</v>
+        <v>-29.09112614100409</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.865654933132413</v>
+        <v>-1.863479325076636</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.085060702237907</v>
+        <v>-9.120114881473688</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>6.655457685292572</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.74584962716639</v>
+        <v>-30.72739851525065</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.125368755916669</v>
+        <v>-2.122709136181068</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.357241492532797</v>
+        <v>-9.388335576206376</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>6.169293691680029</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.58347574922684</v>
+        <v>-32.56145077329139</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.144890560336261</v>
+        <v>-2.143379857214384</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.708961535545525</v>
+        <v>-9.738652474248299</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>5.618934787175174</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.30293946432083</v>
+        <v>-34.28118827276992</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.504061449814167</v>
+        <v>-2.507307750373799</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.07187740428349</v>
+        <v>-10.1009278830867</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.998627973897166</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.28982696602819</v>
+        <v>-36.26636951108074</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.899220318839435</v>
+        <v>-2.901102586483197</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.49858992362783</v>
+        <v>-10.52033622617186</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.35194467592331</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.31965461504768</v>
+        <v>-38.29502868745903</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.175610544046738</v>
+        <v>-3.179174630052719</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.8321717511643</v>
+        <v>-10.85056419499763</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.642601106823442</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.52124529781905</v>
+        <v>-40.49430686998235</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.537543722404451</v>
+        <v>-3.542271392044758</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.02006117406671</v>
+        <v>-11.04129413088972</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.941587805692755</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.43321854730468</v>
+        <v>-42.40538787571477</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.966275401584824</v>
+        <v>-3.96941903300025</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.26857917112573</v>
+        <v>-11.28548535687152</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.143113908647926</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.70104549510901</v>
+        <v>-44.6744199637118</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.209195485781227</v>
+        <v>-4.215780978030962</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.41204707763535</v>
+        <v>-11.43041018742748</v>
       </c>
     </row>
   </sheetData>
